--- a/HT-6/Optica BAC-01-Catálogo de actores.xlsx
+++ b/HT-6/Optica BAC-01-Catálogo de actores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88911B5-9D43-4A4F-9978-31D0A0C9329F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B6D30-DEB7-4771-9415-A8DE03AF4DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Nombre</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Persona que desea adquirir una montura o lentes nuevos. O busca reparar ya sea alguna la montura o  lentes de su propiedad.</t>
+  </si>
+  <si>
+    <t>Cliente Online</t>
+  </si>
+  <si>
+    <t>Persona que utiliza el portal web de Óptica Vision para adquirir una montura nueva</t>
   </si>
 </sst>
 </file>
@@ -108,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -132,15 +138,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -170,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -180,29 +177,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -575,7 +560,7 @@
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -585,41 +570,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
